--- a/Бизнес-планирование в строительстве/шаблон бизнес модели.xlsx
+++ b/Бизнес-планирование в строительстве/шаблон бизнес модели.xlsx
@@ -324,58 +324,6 @@
     <t>- Каков вклад дохода от каждого отдельного направления деятельности в общую структуру доходов?</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Основные партнеры</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Поставщики стройматериалов и техники, проектировочные организации, подрядные строительные организации, Банки</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Отношения с клиентами</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Отношения с клиентами доброжелательное, помощь при возникновении вопросов, претензий, пожеланий. Цена взаимодействия с клиентом - содержание менеджера по продажам. Позицонирование продукта - недорогое качественное современное жилье в относительной близости от метро. </t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -441,107 +389,6 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Потоки выручки</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Выручка приходит после сдачи квартир дольщикам и продажи оставщейся части некупленных квартир и помещений.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Основные направления деятельности </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Идея жилого здания, инживидуальные планировки, качество, выгодная цена (индивидуальное предложение по цене) Продажа через сайт застройщика, предложение от партнеров (банков). Прибыль придет после сдачи проекта с эскроу-счетов.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Предлагаемые преимущества: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Жизнь рядом с людьми, схожими по жизненой позициии,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Качество, соблюдение сроков, соотношение цены и качества. Помогаем клиенту решить проблему с получением средств на покупку, проблему с жильем.
-Пакеты услуг: квартира с черновой, предчистовой, чистовой отделкой. Помощь с продажей старой недвижимости. Безопасность: видеонаблюдение, охрана.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Сегменты клиентов</t>
     </r>
     <r>
@@ -555,6 +402,182 @@
       </rPr>
       <t xml:space="preserve">
 Клиенты - молодые люди (семьи без детей или с 1 ребенком). Пожилые люди.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Предлагаемые преимущества: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Безопасность: видеонаблюдение, охрана.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Жизнь рядом с людьми, схожими по жизненой позициии,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> к</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ачество, соблюдение сроков, соотношение цены и качества. Помогаем клиенту решить проблему с получением средств на покупку, проблему с жильем. Предоставление выбора планировок квартир из их многообразия.
+Пакеты услуг: квартира с черновой, предчистовой, чистовой отделкой. Помощь с продажей старой недвижимости.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Отношения с клиентами</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Отношения с клиентами доброжелательное, помощь при возникновении вопросов, претензий, пожеланий. Цена взаимодействия с клиентом - содержание менеджера по продажам. Позицонирование продукта - недорогое качественное современное жилье в относительной близости от метро.  Регулярная организация мероприятий и собраний для жильцов , чтобы создать атмосферу взаимодействия и поддержки между жильцами.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Основные направления деятельности </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Идея жилого здания, инживидуальные планировки, качество, выгодная цена (индивидуальное предложение по цене) Продажа через сайт застройщика, предложение от партнеров (банков). Прибыль придет после сдачи проекта с эскроу-счетов. Целевая реклама.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Основные партнеры</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Поставщики стройматериалов и техники, проектировочные организации, подрядные строительные организации, Банки, Сотрудничество с дизайнерами интерьеров, архитекторами и строительными компаниями, агенты по недвижимости</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Потоки выручки</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Прибыль будет генерироваться от продажи квартир. Цена квартир будет зависеть от площади, этажа и выбранной отделки. Кроме того, можно предусмотреть дополнительные источники дохода, такие как аренда коммерческих помещений на первом этаже или предоставление дополнительных услуг для жильцов (например, уборка, консьерж-сервис и т. д.).</t>
     </r>
   </si>
 </sst>
@@ -1024,19 +1047,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>104</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1126,7 +1149,7 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1190,12 +1213,12 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E23" s="7"/>
     </row>
@@ -1267,7 +1290,7 @@
     <mergeCell ref="E1:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1275,7 +1298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A116"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
@@ -1397,7 +1420,7 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">

--- a/Бизнес-планирование в строительстве/шаблон бизнес модели.xlsx
+++ b/Бизнес-планирование в строительстве/шаблон бизнес модели.xlsx
@@ -363,156 +363,6 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Структура расходов</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Расходы на строительные материалы, сотрудников, информационное обеспечение, логистику.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Сегменты клиентов</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Клиенты - молодые люди (семьи без детей или с 1 ребенком). Пожилые люди.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Предлагаемые преимущества: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Безопасность: видеонаблюдение, охрана.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Жизнь рядом с людьми, схожими по жизненой позициии,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> к</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ачество, соблюдение сроков, соотношение цены и качества. Помогаем клиенту решить проблему с получением средств на покупку, проблему с жильем. Предоставление выбора планировок квартир из их многообразия.
-Пакеты услуг: квартира с черновой, предчистовой, чистовой отделкой. Помощь с продажей старой недвижимости.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Отношения с клиентами</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Отношения с клиентами доброжелательное, помощь при возникновении вопросов, претензий, пожеланий. Цена взаимодействия с клиентом - содержание менеджера по продажам. Позицонирование продукта - недорогое качественное современное жилье в относительной близости от метро.  Регулярная организация мероприятий и собраний для жильцов , чтобы создать атмосферу взаимодействия и поддержки между жильцами.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">Основные направления деятельности </t>
     </r>
     <r>
@@ -539,32 +389,6 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Основные партнеры</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Поставщики стройматериалов и техники, проектировочные организации, подрядные строительные организации, Банки, Сотрудничество с дизайнерами интерьеров, архитекторами и строительными компаниями, агенты по недвижимости</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Потоки выручки</t>
     </r>
     <r>
@@ -578,6 +402,204 @@
       </rPr>
       <t xml:space="preserve">
 Прибыль будет генерироваться от продажи квартир. Цена квартир будет зависеть от площади, этажа и выбранной отделки. Кроме того, можно предусмотреть дополнительные источники дохода, такие как аренда коммерческих помещений на первом этаже или предоставление дополнительных услуг для жильцов (например, уборка, консьерж-сервис и т. д.).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Сегменты клиентов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Клиенты - люди всех возрастов, (семьи без детей или с 1 ребенком), однако преимущественно молодые люди. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Структура расходов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Расходы на строительные материалы, сотрудников, информационное обеспечение, логистику, земельный участок, технику, реклама.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Основные партнеры</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Поставщики стройматериалов и техники, проектировочные организации, подрядные строительные организации, Банки, Сотрудничество с дизайнерами интерьеров, архитекторами и строительными компаниями, агенты по недвижимости, менеджеры по маркетингу, рекламные агенства</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Предлагаемые преимущества: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Безопасность: видеонаблюдение, охрана.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Жизнь рядом с людьми, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>к</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ачество, соблюдение сроков, соотношение цены и качества, уникальный дизайн квартиры, наличие 2-х лифтов в т.ч. грузовой. Помогаем клиенту решить проблему с получением средств на покупку, проблему с жильем. Предоставление выбора планировок квартир из их многообразия.
+Пакеты услуг: квартира с черновой, предчистовой, чистовой отделкой. Помощь с продажей старой недвижимости. Подземный и наземный паркинг.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Отношения с клиентами</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Отношения с клиентами доброжелательное, помощь при возникновении вопросов, претензий, пожеланий. Цена взаимодействия с клиентом - содержание менеджера по продажам. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Позицонирование продукта - недорогое качественное современное жилье в относительной близости от метро.  Р</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>егулярная организация мероприятий и собраний для жильцов , чтобы создать атмосферу взаимодействия и поддержки между жильцами.</t>
     </r>
   </si>
 </sst>
@@ -585,7 +607,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,6 +629,14 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1033,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:C31"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,19 +1077,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1213,12 +1243,12 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E23" s="7"/>
     </row>

--- a/Бизнес-планирование в строительстве/шаблон бизнес модели.xlsx
+++ b/Бизнес-планирование в строительстве/шаблон бизнес модели.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamet\Documents\GitHub\3-term-of-SPBSTU\Бизнес-планирование в строительстве\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\3-term-of-SPBSTU\Бизнес-планирование в строительстве\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -577,18 +577,17 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Отношения с клиентами доброжелательное, помощь при возникновении вопросов, претензий, пожеланий. Цена взаимодействия с клиентом - содержание менеджера по продажам. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Позицонирование продукта - недорогое качественное современное жилье в относительной близости от метро.  Р</t>
+Отношения с клиентами доброжелательное, помощь при возникновении вопросов, претензий, пожеланий. Цена взаимодействия с клиентом - содержание менеджера по продажам.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Р</t>
     </r>
     <r>
       <rPr>
@@ -636,7 +635,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1063,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Бизнес-планирование в строительстве/шаблон бизнес модели.xlsx
+++ b/Бизнес-планирование в строительстве/шаблон бизнес модели.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\3-term-of-SPBSTU\Бизнес-планирование в строительстве\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamet\Documents\GitHub\3-term-of-SPBSTU\Бизнес-планирование в строительстве\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -389,32 +389,6 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Потоки выручки</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Прибыль будет генерироваться от продажи квартир. Цена квартир будет зависеть от площади, этажа и выбранной отделки. Кроме того, можно предусмотреть дополнительные источники дохода, такие как аренда коммерческих помещений на первом этаже или предоставление дополнительных услуг для жильцов (например, уборка, консьерж-сервис и т. д.).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Сегменты клиентов</t>
     </r>
     <r>
@@ -599,6 +573,32 @@
         <scheme val="minor"/>
       </rPr>
       <t>егулярная организация мероприятий и собраний для жильцов , чтобы создать атмосферу взаимодействия и поддержки между жильцами.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Потоки выручки</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Прибыль будет генерироваться от продажи квартир. Цена квартир будет зависеть от площади, этажа и выбранной отделки. Сдача в аренду коммерческих помещений на первом этаже. Предоставление дополнительных услуг для жильцов (например, уборка, консьерж-сервис и т. д.).</t>
     </r>
   </si>
 </sst>
@@ -1062,7 +1062,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D22"/>
+      <selection activeCell="C1" sqref="C1:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,19 +1075,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>100</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="E1" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1241,12 +1241,12 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E23" s="7"/>
     </row>
